--- a/titan/src/test/resources/excel/CreateProject.xlsx
+++ b/titan/src/test/resources/excel/CreateProject.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="NewProject" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="kk" sheetId="2" r:id="rId2"/>
+    <sheet name="NewTask" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="F1:N17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
   <si>
     <t>ProjectCode</t>
   </si>
@@ -119,16 +121,46 @@
     <t>YT606</t>
   </si>
   <si>
-    <t>YT620</t>
-  </si>
-  <si>
-    <t>YT621</t>
+    <t>YT626</t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>DueDate</t>
+  </si>
+  <si>
+    <t>DescriptionText</t>
+  </si>
+  <si>
+    <t>Task02</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>yutyutuy</t>
+  </si>
+  <si>
+    <t>YT627</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -187,6 +219,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +711,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
@@ -727,6 +761,9 @@
       <c r="Q4" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,7 +776,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,4 +1013,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/titan/src/test/resources/excel/CreateProject.xlsx
+++ b/titan/src/test/resources/excel/CreateProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="5925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewProject" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="NewTask" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:N17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t>ProjectCode</t>
   </si>
@@ -142,19 +141,25 @@
     <t>DescriptionText</t>
   </si>
   <si>
-    <t>Task02</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>Top</t>
   </si>
   <si>
-    <t>yutyutuy</t>
-  </si>
-  <si>
     <t>YT627</t>
+  </si>
+  <si>
+    <t>New Task Create Successfully</t>
+  </si>
+  <si>
+    <t>Task05</t>
+  </si>
+  <si>
+    <t>Task06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jitendra </t>
   </si>
 </sst>
 </file>
@@ -211,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -219,7 +224,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -711,10 +715,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>25</v>
@@ -763,7 +767,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1017,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,43 +1035,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
